--- a/data/trans_bre/P15_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_3-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -641,47 +641,47 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,1%</t>
+          <t>-16,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-21,39%</t>
+          <t>-22,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>-0,85%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 4,4</t>
+          <t>-6,35; 4,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 6,7</t>
+          <t>-6,71; 5,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 4,5</t>
+          <t>-14,24; 2,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 20,82</t>
+          <t>-5,06; 17,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 12,49</t>
+          <t>-13,67; 12,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,45; 86,67</t>
+          <t>-62,37; 106,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-58,57; 150,43</t>
+          <t>-57,61; 129,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,27; 27,86</t>
+          <t>-51,97; 14,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 124,15</t>
+          <t>-15,9; 101,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 38,24</t>
+          <t>-29,55; 38,71</t>
         </is>
       </c>
     </row>
@@ -761,47 +761,47 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,36%</t>
+          <t>52,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-32,9%</t>
+          <t>-34,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 5,79</t>
+          <t>-1,64; 6,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,21</t>
+          <t>-4,18; 2,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 9,88</t>
+          <t>-4,11; 10,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 14,82</t>
+          <t>-2,63; 15,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 16,02</t>
+          <t>-9,07; 17,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,6; 362,41</t>
+          <t>-40,3; 417,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 304,22</t>
+          <t>-100,0; 280,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 77,67</t>
+          <t>-19,91; 81,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 65,4</t>
+          <t>-7,76; 70,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 42,77</t>
+          <t>-16,44; 46,94</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -901,27 +901,27 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>104,61%</t>
+          <t>104,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>137,52%</t>
+          <t>117,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>37,32%</t>
         </is>
       </c>
     </row>
@@ -934,52 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,98</t>
+          <t>1,42; 9,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 11,17</t>
+          <t>1,53; 11,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 12,04</t>
+          <t>-0,3; 12,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 14,45</t>
+          <t>0,0; 14,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 21,68</t>
+          <t>3,99; 21,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,72; 278,19</t>
+          <t>14,29; 293,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,98; 355,6</t>
+          <t>13,84; 342,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 89,76</t>
+          <t>-1,73; 89,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 67,6</t>
+          <t>-0,65; 63,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,52; 72,6</t>
+          <t>9,4; 72,28</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1026,17 +1026,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,17%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1054,52 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 2,43</t>
+          <t>-5,85; 2,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,89</t>
+          <t>-2,64; 5,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 4,45</t>
+          <t>-7,68; 5,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 9,77</t>
+          <t>-4,6; 9,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 9,01</t>
+          <t>-10,93; 10,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,71; 32,3</t>
+          <t>-48,72; 39,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,54; 160,17</t>
+          <t>-40,34; 162,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,65; 27,39</t>
+          <t>-33,26; 33,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 38,28</t>
+          <t>-14,53; 39,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 20,78</t>
+          <t>-20,5; 23,86</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1141,22 +1141,22 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>46,52%</t>
+          <t>46,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1174,52 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 7,06</t>
+          <t>-1,9; 6,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 7,83</t>
+          <t>-3,21; 5,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 7,55</t>
+          <t>-6,49; 6,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 11,0</t>
+          <t>-4,9; 10,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 15,69</t>
+          <t>-4,04; 15,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 235,79</t>
+          <t>-30,15; 212,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-45,19; 256,61</t>
+          <t>-50,52; 167,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 45,36</t>
+          <t>-27,02; 38,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 42,59</t>
+          <t>-14,5; 39,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 44,55</t>
+          <t>-8,13; 45,78</t>
         </is>
       </c>
     </row>
@@ -1241,47 +1241,47 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,93%</t>
+          <t>-22,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-49,85%</t>
+          <t>-45,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 2,66</t>
+          <t>-5,6; 2,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 1,1</t>
+          <t>-11,69; 1,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 8,45</t>
+          <t>-5,15; 8,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 6,53</t>
+          <t>-9,36; 6,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 14,04</t>
+          <t>-9,79; 12,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,8; 75,34</t>
+          <t>-62,52; 75,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-86,66; 44,74</t>
+          <t>-85,2; 43,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 93,49</t>
+          <t>-30,11; 101,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 35,39</t>
+          <t>-33,04; 34,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 49,2</t>
+          <t>-24,76; 42,23</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1386,17 +1386,17 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1414,52 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,72</t>
+          <t>-0,84; 2,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,76</t>
+          <t>-1,24; 2,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,81</t>
+          <t>-1,67; 3,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 7,54</t>
+          <t>0,08; 6,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 8,1</t>
+          <t>-1,03; 8,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 49,29</t>
+          <t>-12,14; 51,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 64,84</t>
+          <t>-19,1; 64,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 23,19</t>
+          <t>-8,59; 23,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 30,59</t>
+          <t>0,66; 27,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 21,58</t>
+          <t>-2,57; 22,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
